--- a/data/trans_orig/P1403-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E06876C4-E491-4944-8649-E678AFC0644E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F7DF77-E63E-4555-82A6-ED4AA5707814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3BC07E7-2A53-47A2-8B22-C555D85DDB1F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70DD9880-7117-4677-8984-75CF396A639F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="515">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,13 +95,16 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,8%</t>
+    <t>0,95%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,62%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
   </si>
   <si>
     <t>0,36%</t>
@@ -110,7 +113,7 @@
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,99%</t>
+    <t>0,9%</t>
   </si>
   <si>
     <t>No</t>
@@ -119,7 +122,7 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>99,2%</t>
+    <t>99,05%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -128,13 +131,16 @@
     <t>99,44%</t>
   </si>
   <si>
-    <t>98,38%</t>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,01%</t>
+    <t>99,1%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -155,1450 +161,1429 @@
     <t>0,15%</t>
   </si>
   <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>72,03%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>49,9%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
   </si>
   <si>
     <t>65,05%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>34,95%</t>
   </si>
   <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
   </si>
   <si>
     <t>21,6%</t>
   </si>
   <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>75,76%</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
   </si>
 </sst>
 </file>
@@ -2010,7 +1995,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD688F37-4B95-4B55-A592-8ED78E80E927}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE9573-6591-40F4-AC26-6BEB3962F06B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2203,10 +2188,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2215,19 +2200,19 @@
         <v>3422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>498</v>
@@ -2236,13 +2221,13 @@
         <v>493284</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>486</v>
@@ -2251,13 +2236,13 @@
         <v>464848</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>984</v>
@@ -2266,13 +2251,13 @@
         <v>958131</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2287,13 +2272,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2302,13 +2287,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2317,18 +2302,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2346,7 +2331,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2361,7 +2346,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2376,7 +2361,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2376,13 @@
         <v>2009</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -2406,13 +2391,13 @@
         <v>9140</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -2421,19 +2406,19 @@
         <v>11149</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>701</v>
@@ -2442,13 +2427,13 @@
         <v>733480</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H10" s="7">
         <v>582</v>
@@ -2457,7 +2442,7 @@
         <v>616354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>48</v>
@@ -2493,13 +2478,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -2508,13 +2493,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -2523,13 +2508,13 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,7 +2567,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2624,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>592</v>
@@ -2699,13 +2684,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -2714,13 +2699,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -2729,13 +2714,13 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2830,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>413</v>
@@ -2905,13 +2890,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -2920,13 +2905,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -2935,13 +2920,13 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,7 +3036,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>272</v>
@@ -3111,13 +3096,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3126,13 +3111,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3141,13 +3126,13 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3257,7 +3242,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>301</v>
@@ -3317,13 +3302,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3332,13 +3317,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3347,13 +3332,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,16 +3439,16 @@
         <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>2777</v>
@@ -3472,13 +3457,13 @@
         <v>2849324</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H30" s="7">
         <v>2741</v>
@@ -3487,28 +3472,28 @@
         <v>2806398</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M30" s="7">
         <v>5518</v>
       </c>
       <c r="N30" s="7">
-        <v>5655720</v>
+        <v>5655721</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>89</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3508,13 @@
         <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -3538,33 +3523,33 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3586,7 +3571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19712962-7AAE-4426-B0A0-AC84E3F8205A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CEFDEB-D131-4AEB-BAB5-DB0340F2EF47}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3603,7 +3588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3716,7 +3701,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3731,7 +3716,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3746,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,13 +3746,13 @@
         <v>960</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3782,7 +3767,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3791,19 +3776,19 @@
         <v>960</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>445</v>
@@ -3812,13 +3797,13 @@
         <v>453186</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>421</v>
@@ -3827,13 +3812,13 @@
         <v>430230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M6" s="7">
         <v>866</v>
@@ -3842,13 +3827,13 @@
         <v>883416</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,13 +3848,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3878,13 +3863,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -3893,18 +3878,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3937,7 +3922,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3952,7 +3937,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3952,13 @@
         <v>6840</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -3982,13 +3967,13 @@
         <v>9419</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M9" s="7">
         <v>15</v>
@@ -3997,19 +3982,19 @@
         <v>16259</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>660</v>
@@ -4018,13 +4003,13 @@
         <v>680247</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>563</v>
@@ -4033,13 +4018,13 @@
         <v>600836</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>1223</v>
@@ -4048,13 +4033,13 @@
         <v>1281083</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,13 +4054,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -4084,13 +4069,13 @@
         <v>610255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -4099,13 +4084,13 @@
         <v>1297342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,7 +4143,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4158,13 @@
         <v>33282</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4188,13 +4173,13 @@
         <v>25510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -4203,19 +4188,19 @@
         <v>58793</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>621</v>
@@ -4224,13 +4209,13 @@
         <v>648581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H14" s="7">
         <v>641</v>
@@ -4239,13 +4224,13 @@
         <v>684064</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M14" s="7">
         <v>1262</v>
@@ -4254,13 +4239,13 @@
         <v>1332644</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4260,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>666</v>
@@ -4290,13 +4275,13 @@
         <v>709574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1317</v>
@@ -4305,13 +4290,13 @@
         <v>1391437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4319,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4349,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4364,7 +4349,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4364,13 @@
         <v>73517</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -4394,13 +4379,13 @@
         <v>82192</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>142</v>
@@ -4409,19 +4394,19 @@
         <v>155709</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>481</v>
@@ -4463,10 +4448,10 @@
         <v>222</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4466,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>538</v>
@@ -4496,13 +4481,13 @@
         <v>614264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1086</v>
@@ -4511,13 +4496,13 @@
         <v>1228880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,7 +4540,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4585,13 +4570,13 @@
         <v>151371</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H21" s="7">
         <v>159</v>
@@ -4600,13 +4585,13 @@
         <v>173672</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M21" s="7">
         <v>296</v>
@@ -4615,19 +4600,19 @@
         <v>325043</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>256</v>
@@ -4636,13 +4621,13 @@
         <v>278058</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>247</v>
@@ -4651,13 +4636,13 @@
         <v>274128</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>503</v>
@@ -4666,13 +4651,13 @@
         <v>552186</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4687,13 +4672,13 @@
         <v>429429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -4702,13 +4687,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -4717,13 +4702,13 @@
         <v>877229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4791,13 +4776,13 @@
         <v>310607</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H25" s="7">
         <v>424</v>
@@ -4806,13 +4791,13 @@
         <v>454401</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M25" s="7">
         <v>706</v>
@@ -4821,19 +4806,19 @@
         <v>765009</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>222</v>
@@ -4842,13 +4827,13 @@
         <v>249030</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H26" s="7">
         <v>269</v>
@@ -4857,13 +4842,13 @@
         <v>287465</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M26" s="7">
         <v>491</v>
@@ -4872,13 +4857,13 @@
         <v>536495</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4893,13 +4878,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>693</v>
@@ -4908,13 +4893,13 @@
         <v>741866</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1197</v>
@@ -4923,13 +4908,13 @@
         <v>1301504</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +4982,13 @@
         <v>576578</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H29" s="7">
         <v>691</v>
@@ -5012,13 +4997,13 @@
         <v>745194</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M29" s="7">
         <v>1215</v>
@@ -5027,19 +5012,19 @@
         <v>1321773</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>2685</v>
@@ -5048,13 +5033,13 @@
         <v>2850201</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H30" s="7">
         <v>2604</v>
@@ -5063,28 +5048,28 @@
         <v>2808796</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M30" s="7">
         <v>5289</v>
       </c>
       <c r="N30" s="7">
-        <v>5658995</v>
+        <v>5658996</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5099,13 +5084,13 @@
         <v>3426779</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>3295</v>
@@ -5114,33 +5099,33 @@
         <v>3553990</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980768</v>
+        <v>6980769</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5162,7 +5147,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F729BE8F-3667-4BBF-BA14-94BC16FCA0D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4498DA-A9B5-48DD-BED7-91D4F6161EE3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5179,7 +5164,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5307,7 +5292,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5337,13 +5322,13 @@
         <v>1403</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5352,13 +5337,13 @@
         <v>902</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5367,19 +5352,19 @@
         <v>2305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>392</v>
@@ -5388,13 +5373,13 @@
         <v>418060</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>403</v>
@@ -5403,13 +5388,13 @@
         <v>394853</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>290</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>795</v>
@@ -5418,13 +5403,13 @@
         <v>812913</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>292</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5439,13 +5424,13 @@
         <v>419463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -5454,13 +5439,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>797</v>
@@ -5469,18 +5454,18 @@
         <v>815218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5498,7 +5483,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5513,7 +5498,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5528,7 +5513,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>293</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5528,13 @@
         <v>7144</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5558,13 +5543,13 @@
         <v>1895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>8</v>
@@ -5576,7 +5561,7 @@
         <v>296</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>297</v>
@@ -5585,7 +5570,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>561</v>
@@ -5600,7 +5585,7 @@
         <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
         <v>577</v>
@@ -5609,13 +5594,13 @@
         <v>561649</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" s="7">
         <v>1138</v>
@@ -5624,13 +5609,13 @@
         <v>1145001</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5630,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -5660,13 +5645,13 @@
         <v>563544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -5675,13 +5660,13 @@
         <v>1154040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,7 +5689,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5734,7 +5719,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5734,13 @@
         <v>23188</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5764,13 +5749,13 @@
         <v>16275</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>308</v>
+        <v>192</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -5779,19 +5764,19 @@
         <v>39462</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>616</v>
@@ -5815,13 +5800,13 @@
         <v>645111</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1265</v>
@@ -5830,13 +5815,13 @@
         <v>1291021</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5851,13 +5836,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>665</v>
@@ -5866,13 +5851,13 @@
         <v>661386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1303</v>
@@ -5881,13 +5866,13 @@
         <v>1330483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,7 +5895,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5925,7 +5910,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5955,13 +5940,13 @@
         <v>87271</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>323</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -5970,13 +5955,13 @@
         <v>58646</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -5985,19 +5970,19 @@
         <v>145917</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>504</v>
@@ -6006,13 +5991,13 @@
         <v>558777</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H18" s="7">
         <v>548</v>
@@ -6021,28 +6006,28 @@
         <v>590431</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M18" s="7">
         <v>1052</v>
       </c>
       <c r="N18" s="7">
-        <v>1149208</v>
+        <v>1149209</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6057,13 +6042,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -6072,28 +6057,28 @@
         <v>649077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,7 +6101,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6131,7 +6116,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6146,7 +6131,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6146,13 @@
         <v>120474</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H21" s="7">
         <v>131</v>
@@ -6176,13 +6161,13 @@
         <v>147754</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M21" s="7">
         <v>237</v>
@@ -6191,19 +6176,19 @@
         <v>268228</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>318</v>
@@ -6212,13 +6197,13 @@
         <v>357444</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
@@ -6227,13 +6212,13 @@
         <v>349095</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>620</v>
@@ -6242,13 +6227,13 @@
         <v>706539</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6263,13 +6248,13 @@
         <v>477918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6278,13 +6263,13 @@
         <v>496849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>857</v>
@@ -6293,13 +6278,13 @@
         <v>974767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,7 +6337,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6352,13 @@
         <v>274694</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="H25" s="7">
         <v>335</v>
@@ -6382,13 +6367,13 @@
         <v>403932</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M25" s="7">
         <v>630</v>
@@ -6397,19 +6382,19 @@
         <v>678626</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>332</v>
@@ -6418,13 +6403,13 @@
         <v>316634</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -6433,13 +6418,13 @@
         <v>373999</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M26" s="7">
         <v>652</v>
@@ -6448,13 +6433,13 @@
         <v>690633</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6454,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -6484,13 +6469,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -6499,13 +6484,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,13 +6558,13 @@
         <v>514174</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H29" s="7">
         <v>539</v>
@@ -6588,13 +6573,13 @@
         <v>629403</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M29" s="7">
         <v>1047</v>
@@ -6603,19 +6588,19 @@
         <v>1143577</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>2723</v>
@@ -6624,13 +6609,13 @@
         <v>2880176</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H30" s="7">
         <v>2799</v>
@@ -6639,13 +6624,13 @@
         <v>2915139</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M30" s="7">
         <v>5522</v>
@@ -6654,13 +6639,13 @@
         <v>5795315</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6660,13 @@
         <v>3394350</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>3338</v>
@@ -6690,13 +6675,13 @@
         <v>3544542</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>6569</v>
@@ -6705,18 +6690,18 @@
         <v>6938892</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6738,7 +6723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21EE4D82-D21F-46EA-9793-C9D93A9B843B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D3868-FF0A-4474-864A-0235691E2089}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6755,7 +6740,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6868,7 +6853,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6883,7 +6868,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6898,7 +6883,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6913,13 +6898,13 @@
         <v>161</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>37</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6928,13 +6913,13 @@
         <v>3242</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6943,19 +6928,19 @@
         <v>3403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>171</v>
@@ -6964,13 +6949,13 @@
         <v>377518</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>404</v>
+        <v>46</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>205</v>
@@ -6979,13 +6964,13 @@
         <v>351715</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>376</v>
@@ -6994,13 +6979,13 @@
         <v>729233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>407</v>
+        <v>300</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,13 +7000,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -7030,13 +7015,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -7045,18 +7030,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7074,7 +7059,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7083,13 +7068,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7098,13 +7083,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7119,13 +7104,13 @@
         <v>5586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7134,13 +7119,13 @@
         <v>4993</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -7149,19 +7134,19 @@
         <v>10580</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>312</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>296</v>
@@ -7170,13 +7155,13 @@
         <v>422810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="H10" s="7">
         <v>455</v>
@@ -7185,13 +7170,13 @@
         <v>493584</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>420</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>414</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>751</v>
@@ -7203,10 +7188,10 @@
         <v>298</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7206,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7236,13 +7221,13 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -7251,13 +7236,13 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,7 +7265,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7289,13 +7274,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>425</v>
+        <v>270</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7304,13 +7289,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>136</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7310,13 @@
         <v>20762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -7340,13 +7325,13 @@
         <v>13807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -7355,19 +7340,19 @@
         <v>34569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>427</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>524</v>
@@ -7376,13 +7361,13 @@
         <v>535294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H14" s="7">
         <v>823</v>
@@ -7391,13 +7376,13 @@
         <v>568950</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M14" s="7">
         <v>1347</v>
@@ -7406,13 +7391,13 @@
         <v>1104245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,13 +7412,13 @@
         <v>556056</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>848</v>
@@ -7442,13 +7427,13 @@
         <v>610447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -7457,13 +7442,13 @@
         <v>1166504</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7480,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7516,7 +7501,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7516,13 @@
         <v>111101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>144</v>
@@ -7546,13 +7531,13 @@
         <v>99539</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -7561,19 +7546,19 @@
         <v>210641</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>554</v>
@@ -7582,13 +7567,13 @@
         <v>612889</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H18" s="7">
         <v>996</v>
@@ -7600,25 +7585,25 @@
         <v>219</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="M18" s="7">
         <v>1550</v>
       </c>
       <c r="N18" s="7">
-        <v>1260204</v>
+        <v>1260203</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7618,13 @@
         <v>723990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>1141</v>
@@ -7648,28 +7633,28 @@
         <v>747261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7686,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>400</v>
+        <v>293</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7716,13 +7701,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,13 +7722,13 @@
         <v>175835</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H21" s="7">
         <v>273</v>
@@ -7752,13 +7737,13 @@
         <v>155557</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M21" s="7">
         <v>471</v>
@@ -7767,19 +7752,19 @@
         <v>331393</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>464</v>
@@ -7788,13 +7773,13 @@
         <v>423251</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="H22" s="7">
         <v>725</v>
@@ -7803,28 +7788,28 @@
         <v>437192</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="M22" s="7">
         <v>1189</v>
       </c>
       <c r="N22" s="7">
-        <v>860444</v>
+        <v>860443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>475</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7824,13 @@
         <v>599086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>999</v>
@@ -7854,28 +7839,28 @@
         <v>595512</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>1661</v>
       </c>
       <c r="N23" s="7">
-        <v>1194599</v>
+        <v>1194598</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,7 +7898,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7928,7 +7913,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7943,13 +7928,13 @@
         <v>347081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="H25" s="7">
         <v>973</v>
@@ -7958,13 +7943,13 @@
         <v>620119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M25" s="7">
         <v>1501</v>
@@ -7973,19 +7958,19 @@
         <v>967200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>497</v>
@@ -7994,13 +7979,13 @@
         <v>348453</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -8009,13 +7994,13 @@
         <v>404199</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M26" s="7">
         <v>1228</v>
@@ -8024,13 +8009,13 @@
         <v>752652</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8045,13 +8030,13 @@
         <v>695534</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>1704</v>
@@ -8060,13 +8045,13 @@
         <v>1024318</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>2729</v>
@@ -8075,13 +8060,13 @@
         <v>1719852</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +8098,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8128,13 +8113,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>43</v>
+        <v>171</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>445</v>
+        <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8149,13 +8134,13 @@
         <v>660526</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H29" s="7">
         <v>1419</v>
@@ -8164,13 +8149,13 @@
         <v>897259</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="M29" s="7">
         <v>2283</v>
@@ -8179,19 +8164,19 @@
         <v>1557786</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>2506</v>
@@ -8200,13 +8185,13 @@
         <v>2720215</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H30" s="7">
         <v>3935</v>
@@ -8215,13 +8200,13 @@
         <v>2902955</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="M30" s="7">
         <v>6441</v>
@@ -8230,13 +8215,13 @@
         <v>5623170</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8251,13 +8236,13 @@
         <v>3380741</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>5360</v>
@@ -8266,13 +8251,13 @@
         <v>3831711</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>8730</v>
@@ -8281,18 +8266,18 @@
         <v>7212452</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1403-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F7DF77-E63E-4555-82A6-ED4AA5707814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C164D455-9EC7-4E31-988C-12585A5D7605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{70DD9880-7117-4677-8984-75CF396A639F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A21585F-97BD-4EAE-A7B5-4FBDF0D8DF9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="511">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1209 +95,1212 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,79%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>44,56%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>34,49%</t>
   </si>
   <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>54,69%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>98,87%</t>
   </si>
   <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2023 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
     <t>2,37%</t>
   </si>
   <si>
@@ -1325,9 +1328,6 @@
     <t>2,96%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
     <t>4,27%</t>
   </si>
   <si>
@@ -1379,9 +1379,6 @@
     <t>11,2%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
     <t>14,32%</t>
   </si>
   <si>
@@ -1418,9 +1415,6 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
     <t>29,35%</t>
   </si>
   <si>
@@ -1460,9 +1454,6 @@
     <t>73,41%</t>
   </si>
   <si>
-    <t>70,35%</t>
-  </si>
-  <si>
     <t>76,42%</t>
   </si>
   <si>
@@ -1527,9 +1518,6 @@
   </si>
   <si>
     <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
   </si>
   <si>
     <t>19,54%</t>
@@ -1995,7 +1983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CE9573-6591-40F4-AC26-6BEB3962F06B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3705C2-65E4-4CBC-9699-9FCC1E520341}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2188,10 +2176,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -2200,19 +2188,19 @@
         <v>3422</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>498</v>
@@ -2221,13 +2209,13 @@
         <v>493284</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>486</v>
@@ -2236,13 +2224,13 @@
         <v>464848</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M6" s="7">
         <v>984</v>
@@ -2251,13 +2239,13 @@
         <v>958131</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2260,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2287,13 +2275,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2302,18 +2290,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2331,7 +2319,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2346,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2361,7 +2349,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2364,13 @@
         <v>2009</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -2391,13 +2379,13 @@
         <v>9140</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -2406,19 +2394,19 @@
         <v>11149</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>701</v>
@@ -2427,13 +2415,13 @@
         <v>733480</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" s="7">
         <v>582</v>
@@ -2442,7 +2430,7 @@
         <v>616354</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>48</v>
@@ -2478,13 +2466,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -2493,13 +2481,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -2508,13 +2496,13 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2567,7 +2555,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,7 +2612,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>592</v>
@@ -2684,13 +2672,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -2699,13 +2687,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -2714,13 +2702,13 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2818,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>413</v>
@@ -2890,13 +2878,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -2905,13 +2893,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -2920,13 +2908,13 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,7 +3024,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>272</v>
@@ -3096,13 +3084,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3111,13 +3099,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3126,13 +3114,13 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,7 +3230,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>301</v>
@@ -3302,13 +3290,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3317,13 +3305,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3332,13 +3320,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3436,13 @@
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>2777</v>
       </c>
       <c r="D30" s="7">
-        <v>2849324</v>
+        <v>2849323</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>147</v>
@@ -3505,16 +3493,16 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -3523,13 +3511,13 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
@@ -3538,13 +3526,13 @@
         <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3571,7 +3559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CEFDEB-D131-4AEB-BAB5-DB0340F2EF47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D849B65-0B94-4A0F-AB34-FF2207CF58F5}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3701,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3788,7 +3776,7 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>445</v>
@@ -3803,7 +3791,7 @@
         <v>165</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>421</v>
@@ -3812,13 +3800,13 @@
         <v>430230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M6" s="7">
         <v>866</v>
@@ -3833,7 +3821,7 @@
         <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3836,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3863,13 +3851,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -3878,18 +3866,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3937,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,7 +3982,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>660</v>
@@ -4054,13 +4042,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -4069,13 +4057,13 @@
         <v>610255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -4084,13 +4072,13 @@
         <v>1297342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,7 +4131,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,7 +4188,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>621</v>
@@ -4260,13 +4248,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
         <v>666</v>
@@ -4275,13 +4263,13 @@
         <v>709574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>1317</v>
@@ -4290,13 +4278,13 @@
         <v>1391437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4334,7 +4322,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4400,13 +4388,13 @@
         <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>481</v>
@@ -4415,13 +4403,13 @@
         <v>541100</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H18" s="7">
         <v>463</v>
@@ -4430,13 +4418,13 @@
         <v>532072</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M18" s="7">
         <v>944</v>
@@ -4445,13 +4433,13 @@
         <v>1073171</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4454,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>538</v>
@@ -4481,13 +4469,13 @@
         <v>614264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>1086</v>
@@ -4496,13 +4484,13 @@
         <v>1228880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4540,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4570,13 +4558,13 @@
         <v>151371</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H21" s="7">
         <v>159</v>
@@ -4585,13 +4573,13 @@
         <v>173672</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M21" s="7">
         <v>296</v>
@@ -4600,19 +4588,19 @@
         <v>325043</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>256</v>
@@ -4621,13 +4609,13 @@
         <v>278058</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H22" s="7">
         <v>247</v>
@@ -4636,13 +4624,13 @@
         <v>274128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M22" s="7">
         <v>503</v>
@@ -4651,13 +4639,13 @@
         <v>552186</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4660,13 @@
         <v>429429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -4687,13 +4675,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -4702,13 +4690,13 @@
         <v>877229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,7 +4734,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4776,13 +4764,13 @@
         <v>310607</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H25" s="7">
         <v>424</v>
@@ -4791,13 +4779,13 @@
         <v>454401</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M25" s="7">
         <v>706</v>
@@ -4806,19 +4794,19 @@
         <v>765009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>222</v>
@@ -4827,13 +4815,13 @@
         <v>249030</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H26" s="7">
         <v>269</v>
@@ -4842,13 +4830,13 @@
         <v>287465</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M26" s="7">
         <v>491</v>
@@ -4857,13 +4845,13 @@
         <v>536495</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4866,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>693</v>
@@ -4893,13 +4881,13 @@
         <v>741866</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>1197</v>
@@ -4908,13 +4896,13 @@
         <v>1301504</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4970,13 @@
         <v>576578</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H29" s="7">
         <v>691</v>
@@ -4997,13 +4985,13 @@
         <v>745194</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M29" s="7">
         <v>1215</v>
@@ -5012,19 +5000,19 @@
         <v>1321773</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>2685</v>
@@ -5033,13 +5021,13 @@
         <v>2850201</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H30" s="7">
         <v>2604</v>
@@ -5048,28 +5036,28 @@
         <v>2808796</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M30" s="7">
         <v>5289</v>
       </c>
       <c r="N30" s="7">
-        <v>5658996</v>
+        <v>5658995</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5072,13 @@
         <v>3426779</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H31" s="7">
         <v>3295</v>
@@ -5099,28 +5087,28 @@
         <v>3553990</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M31" s="7">
         <v>6504</v>
       </c>
       <c r="N31" s="7">
-        <v>6980769</v>
+        <v>6980768</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,7 +5135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC4498DA-A9B5-48DD-BED7-91D4F6161EE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25350FD8-7413-4EFE-AF15-3E60387AE1C0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5164,7 +5152,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5292,7 +5280,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5322,13 +5310,13 @@
         <v>1403</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -5337,13 +5325,13 @@
         <v>902</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5352,19 +5340,19 @@
         <v>2305</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>392</v>
@@ -5373,13 +5361,13 @@
         <v>418060</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>403</v>
@@ -5388,13 +5376,13 @@
         <v>394853</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7">
         <v>795</v>
@@ -5403,13 +5391,13 @@
         <v>812913</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>291</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5412,13 @@
         <v>419463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -5439,13 +5427,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>797</v>
@@ -5454,18 +5442,18 @@
         <v>815218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5498,7 +5486,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5513,7 +5501,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>20</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,10 +5516,10 @@
         <v>7144</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>294</v>
@@ -5570,7 +5558,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>561</v>
@@ -5585,7 +5573,7 @@
         <v>299</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>577</v>
@@ -5594,13 +5582,13 @@
         <v>561649</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M10" s="7">
         <v>1138</v>
@@ -5609,13 +5597,13 @@
         <v>1145001</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5618,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -5645,13 +5633,13 @@
         <v>563544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -5660,13 +5648,13 @@
         <v>1154040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5689,7 +5677,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5719,7 +5707,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5722,13 @@
         <v>23188</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -5749,13 +5737,13 @@
         <v>16275</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>192</v>
+        <v>308</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>309</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>310</v>
       </c>
       <c r="M13" s="7">
         <v>38</v>
@@ -5764,19 +5752,19 @@
         <v>39462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>616</v>
@@ -5785,13 +5773,13 @@
         <v>645909</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H14" s="7">
         <v>649</v>
@@ -5800,13 +5788,13 @@
         <v>645111</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>318</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M14" s="7">
         <v>1265</v>
@@ -5815,13 +5803,13 @@
         <v>1291021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5836,13 +5824,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
         <v>665</v>
@@ -5851,13 +5839,13 @@
         <v>661386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>1303</v>
@@ -5866,13 +5854,13 @@
         <v>1330483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,7 +5883,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5910,7 +5898,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5940,13 +5928,13 @@
         <v>87271</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -5955,13 +5943,13 @@
         <v>58646</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M17" s="7">
         <v>132</v>
@@ -5970,19 +5958,19 @@
         <v>145917</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>504</v>
@@ -5991,13 +5979,13 @@
         <v>558777</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H18" s="7">
         <v>548</v>
@@ -6006,28 +5994,28 @@
         <v>590431</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="M18" s="7">
         <v>1052</v>
       </c>
       <c r="N18" s="7">
-        <v>1149209</v>
+        <v>1149208</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6042,13 +6030,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -6057,28 +6045,28 @@
         <v>649077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,7 +6104,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>341</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6146,13 +6134,13 @@
         <v>120474</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H21" s="7">
         <v>131</v>
@@ -6161,13 +6149,13 @@
         <v>147754</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M21" s="7">
         <v>237</v>
@@ -6176,19 +6164,19 @@
         <v>268228</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>318</v>
@@ -6197,13 +6185,13 @@
         <v>357444</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H22" s="7">
         <v>302</v>
@@ -6212,13 +6200,13 @@
         <v>349095</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M22" s="7">
         <v>620</v>
@@ -6227,13 +6215,13 @@
         <v>706539</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,13 +6236,13 @@
         <v>477918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6263,13 +6251,13 @@
         <v>496849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M23" s="7">
         <v>857</v>
@@ -6278,13 +6266,13 @@
         <v>974767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +6325,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6352,13 +6340,13 @@
         <v>274694</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H25" s="7">
         <v>335</v>
@@ -6367,13 +6355,13 @@
         <v>403932</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M25" s="7">
         <v>630</v>
@@ -6382,19 +6370,19 @@
         <v>678626</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>332</v>
@@ -6403,13 +6391,13 @@
         <v>316634</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H26" s="7">
         <v>320</v>
@@ -6418,13 +6406,13 @@
         <v>373999</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M26" s="7">
         <v>652</v>
@@ -6433,13 +6421,13 @@
         <v>690633</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6454,13 +6442,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -6469,13 +6457,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -6484,13 +6472,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,13 +6546,13 @@
         <v>514174</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H29" s="7">
         <v>539</v>
@@ -6573,13 +6561,13 @@
         <v>629403</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M29" s="7">
         <v>1047</v>
@@ -6588,19 +6576,19 @@
         <v>1143577</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>2723</v>
@@ -6609,13 +6597,13 @@
         <v>2880176</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>385</v>
+        <v>89</v>
       </c>
       <c r="H30" s="7">
         <v>2799</v>
@@ -6624,13 +6612,13 @@
         <v>2915139</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>388</v>
+        <v>221</v>
       </c>
       <c r="M30" s="7">
         <v>5522</v>
@@ -6660,13 +6648,13 @@
         <v>3394350</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H31" s="7">
         <v>3338</v>
@@ -6675,13 +6663,13 @@
         <v>3544542</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M31" s="7">
         <v>6569</v>
@@ -6690,13 +6678,13 @@
         <v>6938892</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6723,7 +6711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D3868-FF0A-4474-864A-0235691E2089}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D264624-88A0-484A-8054-2B122D4E1975}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6904,7 +6892,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -6928,19 +6916,19 @@
         <v>3403</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>171</v>
@@ -6949,13 +6937,13 @@
         <v>377518</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H6" s="7">
         <v>205</v>
@@ -6964,13 +6952,13 @@
         <v>351715</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7">
         <v>376</v>
@@ -6979,13 +6967,13 @@
         <v>729233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7000,13 +6988,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -7015,13 +7003,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -7030,18 +7018,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7059,7 +7047,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7068,13 +7056,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7083,13 +7071,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7092,13 @@
         <v>5586</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>408</v>
+        <v>189</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -7125,7 +7113,7 @@
         <v>75</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -7134,19 +7122,19 @@
         <v>10580</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>284</v>
+        <v>411</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>411</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>296</v>
@@ -7155,13 +7143,13 @@
         <v>422810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>413</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>300</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>455</v>
@@ -7170,13 +7158,13 @@
         <v>493584</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>414</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>751</v>
@@ -7188,7 +7176,7 @@
         <v>298</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>416</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>417</v>
@@ -7206,13 +7194,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7221,13 +7209,13 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -7236,13 +7224,13 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,7 +7268,7 @@
         <v>162</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>270</v>
+        <v>419</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7289,13 +7277,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>136</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7298,13 @@
         <v>20762</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -7325,13 +7313,13 @@
         <v>13807</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -7340,10 +7328,10 @@
         <v>34569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>428</v>
+        <v>306</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>429</v>
@@ -7352,7 +7340,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>524</v>
@@ -7412,13 +7400,13 @@
         <v>556056</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H15" s="7">
         <v>848</v>
@@ -7427,13 +7415,13 @@
         <v>610447</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -7442,13 +7430,13 @@
         <v>1166504</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,7 +7474,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7537,7 +7525,7 @@
         <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>446</v>
+        <v>379</v>
       </c>
       <c r="M17" s="7">
         <v>255</v>
@@ -7546,19 +7534,19 @@
         <v>210641</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>447</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>554</v>
@@ -7567,13 +7555,13 @@
         <v>612889</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="H18" s="7">
         <v>996</v>
@@ -7582,13 +7570,13 @@
         <v>647314</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="M18" s="7">
         <v>1550</v>
@@ -7597,13 +7585,13 @@
         <v>1260203</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7606,13 @@
         <v>723990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>1141</v>
@@ -7633,13 +7621,13 @@
         <v>747261</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M19" s="7">
         <v>1806</v>
@@ -7648,13 +7636,13 @@
         <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7674,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>293</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7701,13 +7689,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>459</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,13 +7710,13 @@
         <v>175835</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H21" s="7">
         <v>273</v>
@@ -7737,13 +7725,13 @@
         <v>155557</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M21" s="7">
         <v>471</v>
@@ -7752,19 +7740,19 @@
         <v>331393</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>464</v>
@@ -7773,13 +7761,13 @@
         <v>423251</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="H22" s="7">
         <v>725</v>
@@ -7788,13 +7776,13 @@
         <v>437192</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="M22" s="7">
         <v>1189</v>
@@ -7803,13 +7791,13 @@
         <v>860443</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7824,13 +7812,13 @@
         <v>599086</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H23" s="7">
         <v>999</v>
@@ -7839,13 +7827,13 @@
         <v>595512</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M23" s="7">
         <v>1661</v>
@@ -7854,13 +7842,13 @@
         <v>1194598</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,7 +7901,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,13 +7916,13 @@
         <v>347081</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H25" s="7">
         <v>973</v>
@@ -7943,13 +7931,13 @@
         <v>620119</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M25" s="7">
         <v>1501</v>
@@ -7958,19 +7946,19 @@
         <v>967200</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>497</v>
@@ -7979,13 +7967,13 @@
         <v>348453</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -7994,13 +7982,13 @@
         <v>404199</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="M26" s="7">
         <v>1228</v>
@@ -8009,13 +7997,13 @@
         <v>752652</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,13 +8018,13 @@
         <v>695534</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H27" s="7">
         <v>1704</v>
@@ -8045,13 +8033,13 @@
         <v>1024318</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M27" s="7">
         <v>2729</v>
@@ -8060,13 +8048,13 @@
         <v>1719852</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8098,13 +8086,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8113,13 +8101,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>171</v>
+        <v>341</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>396</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>496</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,13 +8122,13 @@
         <v>660526</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H29" s="7">
         <v>1419</v>
@@ -8149,13 +8137,13 @@
         <v>897259</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M29" s="7">
         <v>2283</v>
@@ -8164,19 +8152,19 @@
         <v>1557786</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>2506</v>
@@ -8185,13 +8173,13 @@
         <v>2720215</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H30" s="7">
         <v>3935</v>
@@ -8200,13 +8188,13 @@
         <v>2902955</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="M30" s="7">
         <v>6441</v>
@@ -8215,13 +8203,13 @@
         <v>5623170</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,13 +8224,13 @@
         <v>3380741</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H31" s="7">
         <v>5360</v>
@@ -8251,13 +8239,13 @@
         <v>3831711</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M31" s="7">
         <v>8730</v>
@@ -8266,13 +8254,13 @@
         <v>7212452</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P1403-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1403-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C43463D7-DA81-4802-AF3F-50B5FF8EB261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED81540F-CE5F-41AE-8B87-0E7186E4A776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C70A8E2-9788-4E87-8074-5DB09677A0B0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4F50BDC3-89E7-4B04-A9EB-3438CD983AEA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="546">
   <si>
     <t>Población con diagnóstico de hipertensión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -128,7 +128,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,27%</t>
@@ -179,7 +179,7 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>3,15%</t>
@@ -236,7 +236,7 @@
     <t>97,15%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>13,92%</t>
@@ -293,7 +293,7 @@
     <t>89,45%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>30,91%</t>
@@ -350,61 +350,118 @@
     <t>72,03%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>47,11%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
   </si>
   <si>
     <t>13,04%</t>
@@ -710,397 +767,499 @@
     <t>66,33%</t>
   </si>
   <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>57,28%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>53,98%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>37,03%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipertensión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>70,26%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
   </si>
   <si>
     <t>58,78%</t>
   </si>
   <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipertensión en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>70,26%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
   </si>
   <si>
     <t>42,67%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
   </si>
   <si>
     <t>15,15%</t>
@@ -1166,340 +1325,358 @@
     <t>0,22%</t>
   </si>
   <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>99,96%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,98%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>99,96%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,98%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>49,9%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>74,39%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
   </si>
 </sst>
 </file>
@@ -1911,8 +2088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22547D5-33A2-4BE1-9996-71B0859FA4A2}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F4033E-2D35-4EBF-AF78-AE8CE13561C2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2804,10 +2981,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>222</v>
+        <v>120</v>
       </c>
       <c r="D19" s="7">
-        <v>212488</v>
+        <v>113493</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2819,10 +2996,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>333</v>
+        <v>170</v>
       </c>
       <c r="I19" s="7">
-        <v>345810</v>
+        <v>157217</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2834,10 +3011,10 @@
         <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>555</v>
+        <v>290</v>
       </c>
       <c r="N19" s="7">
-        <v>558298</v>
+        <v>270710</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2855,10 +3032,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>301</v>
+        <v>183</v>
       </c>
       <c r="D20" s="7">
-        <v>289978</v>
+        <v>179090</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -2870,10 +3047,10 @@
         <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>328</v>
+        <v>201</v>
       </c>
       <c r="I20" s="7">
-        <v>331032</v>
+        <v>185717</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -2885,10 +3062,10 @@
         <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>629</v>
+        <v>384</v>
       </c>
       <c r="N20" s="7">
-        <v>621010</v>
+        <v>364807</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -2906,10 +3083,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2921,10 +3098,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2936,10 +3113,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2953,55 +3130,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>437</v>
+        <v>102</v>
       </c>
       <c r="D22" s="7">
-        <v>427220</v>
+        <v>98995</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>556</v>
+        <v>163</v>
       </c>
       <c r="I22" s="7">
-        <v>572800</v>
+        <v>188593</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>993</v>
+        <v>265</v>
       </c>
       <c r="N22" s="7">
-        <v>1000020</v>
+        <v>287588</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,49 +3187,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2777</v>
+        <v>118</v>
       </c>
       <c r="D23" s="7">
-        <v>2849324</v>
+        <v>110888</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>2741</v>
+        <v>127</v>
       </c>
       <c r="I23" s="7">
-        <v>2806398</v>
+        <v>145315</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>5518</v>
+        <v>245</v>
       </c>
       <c r="N23" s="7">
-        <v>5655720</v>
+        <v>256203</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,63 +3238,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>437</v>
+      </c>
+      <c r="D25" s="7">
+        <v>427220</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>556</v>
+      </c>
+      <c r="I25" s="7">
+        <v>572800</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>993</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1000020</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2777</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2849323</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2741</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2806397</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5518</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5655721</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3130,8 +3463,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F671D1-D424-4918-A2AD-FED0951EC049}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886B86BE-9038-4E2D-B4FA-2E2A6882A6D4}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3147,7 +3480,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3254,13 +3587,13 @@
         <v>960</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3272,10 +3605,10 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3284,13 +3617,13 @@
         <v>960</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3305,10 +3638,10 @@
         <v>453186</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -3323,7 +3656,7 @@
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>28</v>
@@ -3335,10 +3668,10 @@
         <v>883416</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -3409,13 +3742,13 @@
         <v>6840</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -3424,13 +3757,13 @@
         <v>9419</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -3439,13 +3772,13 @@
         <v>16259</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3793,13 @@
         <v>680247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>563</v>
@@ -3475,13 +3808,13 @@
         <v>600836</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>1223</v>
@@ -3490,13 +3823,13 @@
         <v>1281083</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3897,13 @@
         <v>33282</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -3579,13 +3912,13 @@
         <v>25510</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3594,13 +3927,13 @@
         <v>58793</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3948,13 @@
         <v>648581</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>641</v>
@@ -3630,13 +3963,13 @@
         <v>684064</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>1262</v>
@@ -3645,13 +3978,13 @@
         <v>1332644</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +4052,13 @@
         <v>73517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
@@ -3734,13 +4067,13 @@
         <v>82192</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
@@ -3749,13 +4082,13 @@
         <v>155709</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +4103,13 @@
         <v>541100</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>463</v>
@@ -3785,13 +4118,13 @@
         <v>532072</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>944</v>
@@ -3800,13 +4133,13 @@
         <v>1073171</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +4207,13 @@
         <v>151371</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>159</v>
@@ -3889,13 +4222,13 @@
         <v>173672</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>296</v>
@@ -3904,13 +4237,13 @@
         <v>325043</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +4258,13 @@
         <v>278058</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>247</v>
@@ -3940,13 +4273,13 @@
         <v>274128</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -3955,13 +4288,13 @@
         <v>552186</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,49 +4356,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>282</v>
+        <v>147</v>
       </c>
       <c r="D19" s="7">
-        <v>310607</v>
+        <v>160677</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
-        <v>424</v>
+        <v>197</v>
       </c>
       <c r="I19" s="7">
-        <v>454401</v>
+        <v>202782</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
-        <v>706</v>
+        <v>344</v>
       </c>
       <c r="N19" s="7">
-        <v>765009</v>
+        <v>363459</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,49 +4407,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7">
-        <v>249030</v>
+        <v>149109</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
-        <v>269</v>
+        <v>147</v>
       </c>
       <c r="I20" s="7">
-        <v>287465</v>
+        <v>151214</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
-        <v>491</v>
+        <v>282</v>
       </c>
       <c r="N20" s="7">
-        <v>536495</v>
+        <v>300323</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,10 +4458,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -4140,10 +4473,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741866</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -4155,10 +4488,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301504</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -4172,55 +4505,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>524</v>
+        <v>135</v>
       </c>
       <c r="D22" s="7">
-        <v>576578</v>
+        <v>149930</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
-        <v>691</v>
+        <v>227</v>
       </c>
       <c r="I22" s="7">
-        <v>745194</v>
+        <v>251620</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
-        <v>1215</v>
+        <v>362</v>
       </c>
       <c r="N22" s="7">
-        <v>1321773</v>
+        <v>401549</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,49 +4562,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2685</v>
+        <v>87</v>
       </c>
       <c r="D23" s="7">
-        <v>2850201</v>
+        <v>99921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="H23" s="7">
-        <v>2604</v>
+        <v>122</v>
       </c>
       <c r="I23" s="7">
-        <v>2808796</v>
+        <v>136250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
-        <v>5289</v>
+        <v>209</v>
       </c>
       <c r="N23" s="7">
-        <v>5658995</v>
+        <v>236172</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,63 +4613,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387870</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637721</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>524</v>
+      </c>
+      <c r="D25" s="7">
+        <v>576578</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="7">
+        <v>691</v>
+      </c>
+      <c r="I25" s="7">
+        <v>745194</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1215</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1321773</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2685</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2850201</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2604</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2808796</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5289</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5658996</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553990</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
-        <v>6980768</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>6980769</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4349,8 +4838,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913BC49B-B908-4F49-B719-33D6351F124F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F21187-1D8A-4E55-8814-B555C1DE7AE1}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4366,7 +4855,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4473,13 +4962,13 @@
         <v>1403</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -4488,13 +4977,13 @@
         <v>902</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4503,13 +4992,13 @@
         <v>2305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,10 +5013,10 @@
         <v>418060</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -4539,10 +5028,10 @@
         <v>394853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -4554,10 +5043,10 @@
         <v>812913</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>22</v>
@@ -4628,13 +5117,13 @@
         <v>7144</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4643,13 +5132,13 @@
         <v>1895</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -4658,13 +5147,13 @@
         <v>9039</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +5168,13 @@
         <v>583352</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>577</v>
@@ -4694,10 +5183,10 @@
         <v>561649</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>22</v>
@@ -4709,13 +5198,13 @@
         <v>1145001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +5272,13 @@
         <v>23188</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -4798,13 +5287,13 @@
         <v>16275</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>38</v>
@@ -4813,13 +5302,13 @@
         <v>39462</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +5323,13 @@
         <v>645909</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>649</v>
@@ -4849,13 +5338,13 @@
         <v>645111</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>1265</v>
@@ -4864,13 +5353,13 @@
         <v>1291021</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,13 +5427,13 @@
         <v>87271</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -4953,13 +5442,13 @@
         <v>58646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>132</v>
@@ -4968,13 +5457,13 @@
         <v>145917</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5478,13 @@
         <v>558777</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="H14" s="7">
         <v>548</v>
@@ -5004,13 +5493,13 @@
         <v>590431</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="M14" s="7">
         <v>1052</v>
@@ -5019,13 +5508,13 @@
         <v>1149208</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,13 +5582,13 @@
         <v>120474</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>131</v>
@@ -5108,13 +5597,13 @@
         <v>147754</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>237</v>
@@ -5123,13 +5612,13 @@
         <v>268228</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5633,13 @@
         <v>357444</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>302</v>
@@ -5159,13 +5648,13 @@
         <v>349095</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>620</v>
@@ -5174,13 +5663,13 @@
         <v>706539</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,49 +5731,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="D19" s="7">
-        <v>274694</v>
+        <v>136864</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
-        <v>335</v>
+        <v>164</v>
       </c>
       <c r="I19" s="7">
-        <v>403932</v>
+        <v>174502</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
-        <v>630</v>
+        <v>298</v>
       </c>
       <c r="N19" s="7">
-        <v>678626</v>
+        <v>311366</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,49 +5782,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>332</v>
+        <v>191</v>
       </c>
       <c r="D20" s="7">
-        <v>316634</v>
+        <v>197466</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>345</v>
+        <v>381</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>346</v>
+        <v>382</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="I20" s="7">
-        <v>373999</v>
+        <v>203260</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="M20" s="7">
-        <v>652</v>
+        <v>381</v>
       </c>
       <c r="N20" s="7">
-        <v>690633</v>
+        <v>400726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>353</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,10 +5833,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -5359,10 +5848,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -5374,10 +5863,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -5391,55 +5880,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>508</v>
+        <v>161</v>
       </c>
       <c r="D22" s="7">
-        <v>514174</v>
+        <v>137830</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>356</v>
+        <v>391</v>
       </c>
       <c r="H22" s="7">
-        <v>539</v>
+        <v>171</v>
       </c>
       <c r="I22" s="7">
-        <v>629403</v>
+        <v>229430</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="M22" s="7">
-        <v>1047</v>
+        <v>332</v>
       </c>
       <c r="N22" s="7">
-        <v>1143577</v>
+        <v>367260</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>397</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,49 +5937,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2723</v>
+        <v>141</v>
       </c>
       <c r="D23" s="7">
-        <v>2880176</v>
+        <v>119168</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="H23" s="7">
-        <v>2799</v>
+        <v>130</v>
       </c>
       <c r="I23" s="7">
-        <v>2915139</v>
+        <v>170739</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>366</v>
+        <v>401</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="M23" s="7">
-        <v>5522</v>
+        <v>271</v>
       </c>
       <c r="N23" s="7">
-        <v>5795315</v>
+        <v>289907</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,63 +5988,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>508</v>
+      </c>
+      <c r="D25" s="7">
+        <v>514174</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H25" s="7">
+        <v>539</v>
+      </c>
+      <c r="I25" s="7">
+        <v>629403</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1047</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1143577</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2723</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2880176</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2799</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2915139</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5522</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5795315</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5568,8 +6213,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653BD8F5-A8A8-4AAD-9E75-23ADCDFF4918}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040E63D3-955F-44A5-9C8D-F9901C5AD968}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5585,7 +6230,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>372</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5689,46 +6334,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>373</v>
+        <v>426</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>374</v>
+        <v>427</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3242</v>
+        <v>2520</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>375</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>3403</v>
+        <v>2689</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>377</v>
+        <v>313</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5740,13 +6385,13 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>377518</v>
+        <v>399818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>381</v>
+        <v>431</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -5755,13 +6400,13 @@
         <v>205</v>
       </c>
       <c r="I5" s="7">
-        <v>351715</v>
+        <v>310680</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>382</v>
+        <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>383</v>
+        <v>432</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -5770,16 +6415,16 @@
         <v>376</v>
       </c>
       <c r="N5" s="7">
-        <v>729233</v>
+        <v>710498</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>385</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,7 +6436,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -5806,7 +6451,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -5821,7 +6466,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -5844,46 +6489,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>5586</v>
+        <v>4820</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>387</v>
+        <v>300</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>260</v>
+        <v>434</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>4993</v>
+        <v>4661</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>436</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>389</v>
+        <v>434</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
       </c>
       <c r="N7" s="7">
-        <v>10580</v>
+        <v>9481</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>438</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>392</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,46 +6540,46 @@
         <v>296</v>
       </c>
       <c r="D8" s="7">
-        <v>422810</v>
+        <v>418727</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>394</v>
+        <v>440</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>266</v>
+        <v>441</v>
       </c>
       <c r="H8" s="7">
         <v>455</v>
       </c>
       <c r="I8" s="7">
-        <v>493584</v>
+        <v>506843</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>160</v>
+        <v>442</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="M8" s="7">
         <v>751</v>
       </c>
       <c r="N8" s="7">
-        <v>916393</v>
+        <v>925570</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>269</v>
+        <v>444</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>397</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,7 +6591,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -5961,7 +6606,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -5976,7 +6621,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -5999,46 +6644,46 @@
         <v>20</v>
       </c>
       <c r="D10" s="7">
-        <v>20762</v>
+        <v>19805</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>13807</v>
+        <v>13206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>449</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>403</v>
+        <v>173</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>172</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>34569</v>
+        <v>33011</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>451</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6050,46 +6695,46 @@
         <v>524</v>
       </c>
       <c r="D11" s="7">
-        <v>535294</v>
+        <v>515353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>407</v>
+        <v>454</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="H11" s="7">
         <v>823</v>
       </c>
       <c r="I11" s="7">
-        <v>568951</v>
+        <v>528593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>458</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>411</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>1347</v>
       </c>
       <c r="N11" s="7">
-        <v>1104245</v>
+        <v>1043946</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,7 +6746,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>556056</v>
+        <v>535158</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -6116,7 +6761,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -6131,7 +6776,7 @@
         <v>1389</v>
       </c>
       <c r="N12" s="7">
-        <v>1138814</v>
+        <v>1076957</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -6154,46 +6799,46 @@
         <v>111</v>
       </c>
       <c r="D13" s="7">
-        <v>111101</v>
+        <v>107153</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="H13" s="7">
         <v>144</v>
       </c>
       <c r="I13" s="7">
-        <v>99539</v>
+        <v>90785</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="M13" s="7">
         <v>255</v>
       </c>
       <c r="N13" s="7">
-        <v>210641</v>
+        <v>197938</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6205,46 +6850,46 @@
         <v>554</v>
       </c>
       <c r="D14" s="7">
-        <v>612889</v>
+        <v>780633</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="H14" s="7">
         <v>996</v>
       </c>
       <c r="I14" s="7">
-        <v>647315</v>
+        <v>621713</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="M14" s="7">
         <v>1550</v>
       </c>
       <c r="N14" s="7">
-        <v>1260203</v>
+        <v>1402347</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>432</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,7 +6901,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -6271,7 +6916,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -6286,7 +6931,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -6309,46 +6954,46 @@
         <v>198</v>
       </c>
       <c r="D16" s="7">
-        <v>175835</v>
+        <v>165505</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>434</v>
+        <v>479</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>435</v>
+        <v>480</v>
       </c>
       <c r="H16" s="7">
         <v>273</v>
       </c>
       <c r="I16" s="7">
-        <v>155558</v>
+        <v>142973</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>436</v>
+        <v>481</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>437</v>
+        <v>482</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>438</v>
+        <v>483</v>
       </c>
       <c r="M16" s="7">
         <v>471</v>
       </c>
       <c r="N16" s="7">
-        <v>331393</v>
+        <v>308478</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,46 +7005,46 @@
         <v>464</v>
       </c>
       <c r="D17" s="7">
-        <v>423251</v>
+        <v>394732</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>443</v>
+        <v>488</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="H17" s="7">
         <v>725</v>
       </c>
       <c r="I17" s="7">
-        <v>437192</v>
+        <v>401136</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>445</v>
+        <v>490</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="M17" s="7">
         <v>1189</v>
       </c>
       <c r="N17" s="7">
-        <v>860443</v>
+        <v>795868</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>449</v>
+        <v>494</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>450</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,7 +7056,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -6426,7 +7071,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592750</v>
+        <v>544109</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -6441,7 +7086,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1191836</v>
+        <v>1104346</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -6461,49 +7106,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>528</v>
+        <v>265</v>
       </c>
       <c r="D19" s="7">
-        <v>347081</v>
+        <v>169863</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>451</v>
+        <v>496</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>452</v>
+        <v>497</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>453</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
-        <v>973</v>
+        <v>389</v>
       </c>
       <c r="I19" s="7">
-        <v>620119</v>
+        <v>391476</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>454</v>
+        <v>498</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>455</v>
+        <v>499</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>456</v>
+        <v>500</v>
       </c>
       <c r="M19" s="7">
-        <v>1501</v>
+        <v>654</v>
       </c>
       <c r="N19" s="7">
-        <v>967200</v>
+        <v>561340</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>457</v>
+        <v>501</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,49 +7157,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>497</v>
+        <v>302</v>
       </c>
       <c r="D20" s="7">
-        <v>348453</v>
+        <v>196227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>461</v>
+        <v>137</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>462</v>
+        <v>504</v>
       </c>
       <c r="H20" s="7">
-        <v>731</v>
+        <v>436</v>
       </c>
       <c r="I20" s="7">
-        <v>404199</v>
+        <v>215705</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>464</v>
+        <v>506</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>465</v>
+        <v>507</v>
       </c>
       <c r="M20" s="7">
-        <v>1228</v>
+        <v>738</v>
       </c>
       <c r="N20" s="7">
-        <v>752652</v>
+        <v>411931</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>466</v>
+        <v>508</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>468</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,10 +7208,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1025</v>
+        <v>567</v>
       </c>
       <c r="D21" s="7">
-        <v>695534</v>
+        <v>366090</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -6578,10 +7223,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1704</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1024318</v>
+        <v>607181</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -6593,10 +7238,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2729</v>
+        <v>1392</v>
       </c>
       <c r="N21" s="7">
-        <v>1719852</v>
+        <v>973271</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -6610,55 +7255,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>864</v>
+        <v>263</v>
       </c>
       <c r="D22" s="7">
-        <v>660526</v>
+        <v>153937</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="H22" s="7">
-        <v>1419</v>
+        <v>584</v>
       </c>
       <c r="I22" s="7">
-        <v>897259</v>
+        <v>274357</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="M22" s="7">
-        <v>2283</v>
+        <v>847</v>
       </c>
       <c r="N22" s="7">
-        <v>1557786</v>
+        <v>428294</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,49 +7312,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>2506</v>
+        <v>195</v>
       </c>
       <c r="D23" s="7">
-        <v>2720215</v>
+        <v>128822</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="H23" s="7">
-        <v>3935</v>
+        <v>295</v>
       </c>
       <c r="I23" s="7">
-        <v>2902955</v>
+        <v>150548</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="M23" s="7">
-        <v>6441</v>
+        <v>490</v>
       </c>
       <c r="N23" s="7">
-        <v>5623170</v>
+        <v>279370</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,63 +7363,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424905</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707664</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>864</v>
+      </c>
+      <c r="D25" s="7">
+        <v>621253</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1419</v>
+      </c>
+      <c r="I25" s="7">
+        <v>919978</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2283</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1541231</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2506</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2834312</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3935</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2735218</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6441</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5569530</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3370</v>
       </c>
-      <c r="D24" s="7">
-        <v>3380741</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3455565</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5354</v>
       </c>
-      <c r="I24" s="7">
-        <v>3800214</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3655196</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8724</v>
       </c>
-      <c r="N24" s="7">
-        <v>7180956</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>138</v>
+      <c r="N27" s="7">
+        <v>7110761</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
